--- a/files/journals_conf.xlsx
+++ b/files/journals_conf.xlsx
@@ -19,7 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>IEEE</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,7 +344,14 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>